--- a/ExamWritten_260408/ExamRegistration_IDMA25_NDAB23002E.xlsx
+++ b/ExamWritten_260408/ExamRegistration_IDMA25_NDAB23002E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Teaching\IDMA25\ExamWritten_250402\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Teaching\IDMA26\ExamWritten_260408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E403F-9C12-423B-889C-313B312AB6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099E225-9353-4410-AB67-E1C47C9B4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38490" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{F5F7EDAD-02AB-4748-AD82-45748DC6B779}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F5F7EDAD-02AB-4748-AD82-45748DC6B779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="391">
   <si>
     <t>ADM</t>
   </si>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t>Corrected: Eligible</t>
+  </si>
+  <si>
+    <t>MF (should have been eligible; detected 26-02-12)</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3F9335-2819-4C40-970D-A2EC38F2A89C}">
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H80" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+    <sheetView tabSelected="1" topLeftCell="H95" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6508,7 +6511,7 @@
         <v>19</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
